--- a/Bürokratie/Arbeitszeiterfassung-Stundenzettel-Excel.xlsx
+++ b/Bürokratie/Arbeitszeiterfassung-Stundenzettel-Excel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\school_erika\Documents\GitHub\STM32KB\Bürokratie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNI\MAD-Vorlesung\STM32KB\Bürokratie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="MP" sheetId="4" r:id="rId1"/>
     <sheet name="EW" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Datum</t>
   </si>
@@ -64,27 +64,31 @@
     <t>Programmieren von Intents Login Layout, Start Layout</t>
   </si>
   <si>
-    <t>Programmieren des Register Views, MySQL für externe DB
-mit Userabfrage für den Login Screen</t>
-  </si>
-  <si>
-    <t>Refactor für: Login View, Register View, PHP script, MySQL
-diverse Lauyout Anpassungen</t>
-  </si>
-  <si>
-    <t>2.03.2017</t>
-  </si>
-  <si>
     <t>Fragments/Array adapter, Design refactro</t>
   </si>
   <si>
-    <t>34h 30min</t>
+    <t>Programmieren des Register Views, MySQL für externe DB mit Userabfrage für den Login Screen</t>
+  </si>
+  <si>
+    <t>Refactor für: Login View, Register View, PHP script, MySQL diverse Lauyout Anpassungen</t>
+  </si>
+  <si>
+    <t>Refactoring Design/ article reading view</t>
+  </si>
+  <si>
+    <t>Rafactoring App Design</t>
+  </si>
+  <si>
+    <t>Redesign and Refactor of Fragments / additional Branch</t>
+  </si>
+  <si>
+    <t>Fragments complitation / Refactor / Branch merge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-407]d/\ mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
@@ -160,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -220,12 +224,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,17 +296,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -319,7 +347,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -365,7 +393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -440,6 +468,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -475,6 +520,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,34 +716,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XFD38"/>
+  <dimension ref="A1:XFD43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.86328125" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" customWidth="1"/>
+    <col min="4" max="4" width="10.73046875" customWidth="1"/>
+    <col min="5" max="5" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="22"/>
     </row>
-    <row r="2" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="21"/>
     </row>
-    <row r="4" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -697,9 +760,10 @@
       <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="17"/>
     </row>
-    <row r="5" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="25">
         <v>42812</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -707,10 +771,10 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="7">
-        <v>0.16666666666666666</v>
+      <c r="E5" s="27">
+        <v>4</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -13814,8 +13878,8 @@
       <c r="XFC5" s="17"/>
       <c r="XFD5" s="17"/>
     </row>
-    <row r="6" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="25">
         <v>42814</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -13827,11 +13891,10 @@
       <c r="D6" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E6" s="7">
-        <f>SUM(D6-C6)</f>
-        <v>0.125</v>
+      <c r="E6" s="27">
+        <v>3</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -26935,8 +26998,8 @@
       <c r="XFC6" s="17"/>
       <c r="XFD6" s="17"/>
     </row>
-    <row r="7" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.45">
+      <c r="A7" s="25">
         <v>42816</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -26948,14 +27011,13 @@
       <c r="D7" s="7">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E7" s="7">
-        <f>SUM(D7-C7)</f>
-        <v>6.25E-2</v>
+      <c r="E7" s="27">
+        <v>1.5</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.45">
+      <c r="A8" s="25">
         <v>42817</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -26967,14 +27029,13 @@
       <c r="D8" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E8" s="7">
-        <f>SUM(D8-C8)</f>
-        <v>8.333333333333337E-2</v>
+      <c r="E8" s="27">
+        <v>2</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.45">
+      <c r="A9" s="25">
         <v>42818</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -26982,103 +27043,171 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7">
-        <v>0.20833333333333334</v>
+      <c r="E9" s="27">
+        <v>5</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.45">
+      <c r="A10" s="25">
         <v>42819</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7">
-        <v>0.375</v>
+      <c r="E10" s="27">
+        <v>9</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.45">
+      <c r="A11" s="25">
         <v>42820</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="7">
-        <v>0.20833333333333334</v>
+      <c r="E11" s="27">
+        <v>5</v>
       </c>
+      <c r="F11" s="17"/>
     </row>
-    <row r="12" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>16</v>
+    <row r="12" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.45">
+      <c r="A12" s="26">
+        <v>42827</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="27">
+        <v>5</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.45">
+      <c r="A13" s="26">
+        <v>42828</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="17">
-        <v>0.20833333333333334</v>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="27">
+        <v>2</v>
       </c>
+      <c r="F13" s="17"/>
     </row>
-    <row r="13" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+    <row r="14" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.45">
+      <c r="A14" s="26">
+        <v>42829</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="27">
+        <v>2</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.45">
+      <c r="A15" s="26">
+        <v>42830</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="27">
         <v>5</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="10" t="s">
-        <v>18</v>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" x14ac:dyDescent="0.45">
+      <c r="A16" s="26">
+        <v>42831</v>
       </c>
+      <c r="B16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="27">
+        <v>2</v>
+      </c>
+      <c r="F16" s="17"/>
     </row>
-    <row r="14" spans="1:3071 3073:4096 4098:8191 8193:9216 9218:13311 13313:14336 14338:16384" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="25"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="1:1" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:6" ht="21.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="28">
+        <f>SUM(E5:E17)</f>
+        <v>45.5</v>
+      </c>
+      <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:1" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:6" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="11"/>
     </row>
-    <row r="20" spans="1:1" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-    </row>
-    <row r="21" spans="1:1" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-    </row>
-    <row r="22" spans="1:1" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-    </row>
-    <row r="23" spans="1:1" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
     </row>
-    <row r="24" spans="1:1" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
     </row>
-    <row r="25" spans="1:1" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+    <row r="25" spans="1:6" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
     </row>
-    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="33" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="34" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="35" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="36" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="37" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="38" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="14"/>
+    </row>
+    <row r="34" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="35" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="36" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="37" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="38" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="39" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="40" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="41" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="42" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="43" hidden="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
   </mergeCells>
@@ -27106,27 +27235,27 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.86328125" customWidth="1"/>
+    <col min="2" max="2" width="47.1328125" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" customWidth="1"/>
+    <col min="4" max="5" width="10.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="22"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="21"/>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -27143,7 +27272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="8"/>
       <c r="C5" s="7"/>
@@ -27151,7 +27280,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="8"/>
       <c r="C6" s="7"/>
@@ -27159,7 +27288,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
@@ -27167,7 +27296,7 @@
       <c r="E7" s="7"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -27175,14 +27304,14 @@
       <c r="E8" s="7"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="19" t="s">
         <v>5</v>
       </c>
@@ -27194,44 +27323,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:6" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
     </row>
-    <row r="17" spans="1:1" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A17" s="13"/>
     </row>
-    <row r="18" spans="1:1" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
     </row>
-    <row r="19" spans="1:1" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A19" s="13"/>
     </row>
-    <row r="20" spans="1:1" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
     </row>
-    <row r="21" spans="1:1" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
     </row>
-    <row r="22" spans="1:1" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" s="12" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A22" s="14"/>
     </row>
-    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="33" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="34" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="35" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="33" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="34" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="35" hidden="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
